--- a/POS/public/template_penjualan.xlsx
+++ b/POS/public/template_penjualan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oltha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CECEA8-BD93-4B0F-84E6-8BA9B8F866C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A5830B-9E24-4F8B-9FAB-0678C461BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10387" yWindow="2408" windowWidth="7051" windowHeight="9195" xr2:uid="{BD64AC63-304A-4F45-A5C7-4A31AE670554}"/>
+    <workbookView xWindow="10898" yWindow="4680" windowWidth="9285" windowHeight="7005" xr2:uid="{BD64AC63-304A-4F45-A5C7-4A31AE670554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>user_id</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>2QW3o99</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>barang_id</t>
+  </si>
+  <si>
+    <t>harga</t>
   </si>
 </sst>
 </file>
@@ -443,18 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524F3B0-663F-4513-BDD3-7AC828D45DF4}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
     <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -467,8 +477,17 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>7</v>
       </c>
@@ -481,8 +500,17 @@
       <c r="D2" s="1">
         <v>45689.416666666664</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>15000</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>17</v>
       </c>
@@ -495,8 +523,17 @@
       <c r="D3" s="1">
         <v>45689.4375</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>350000</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>7</v>
       </c>
@@ -509,8 +546,17 @@
       <c r="D4" s="1">
         <v>45689.46875</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>40000</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>17</v>
       </c>
@@ -523,8 +569,17 @@
       <c r="D5" s="1">
         <v>45689.006944444445</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>17</v>
       </c>
@@ -537,8 +592,17 @@
       <c r="D6" s="1">
         <v>45717.385416666664</v>
       </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -550,6 +614,15 @@
       </c>
       <c r="D7" s="1">
         <v>45717.432638888888</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>20000</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
